--- a/downloads/funcao-desloc-como-utilizar-no-excel.xlsx
+++ b/downloads/funcao-desloc-como-utilizar-no-excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Dropbox\Public\erredoze\postagens\funcao_desloc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="DESLOC + CORRESP" sheetId="3" r:id="rId1"/>
     <sheet name="DESLOC INT.DINAMICO" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -689,7 +689,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Seta para a direita 1"/>
+        <xdr:cNvPr id="2" name="Seta para a direita 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -730,226 +736,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63401</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Grupo 2"/>
+        <xdr:cNvPr id="6" name="Agrupar 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA7196A-DA46-44EE-9899-6B80FA3FBB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5524500" y="657225"/>
-          <a:ext cx="4581525" cy="2343150"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="6238875" y="438150"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Retângulo de cantos arredondados 3">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Imagem 4">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="7" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F88874-AF93-4253-8B82-5136BA7A676E}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -969,14 +794,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Retângulo 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50962E37-6215-468D-8530-E1FE5FB0B15D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -988,225 +860,44 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1"/>
+        <xdr:cNvPr id="5" name="Agrupar 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9137FA-717C-4D58-AC2F-F0EC8443C60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5524500" y="304799"/>
-          <a:ext cx="4581525" cy="2390775"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="5562600" y="295275"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Imagem 3">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="6" name="Imagem 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09AECBC-DF46-4B5C-99AE-B5365515D98E}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -1226,14 +917,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Retângulo 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC54A21-D5B4-4642-B0E6-5C0B7AD77C4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1243,7 +981,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1281,7 +1019,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1316,6 +1054,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1351,9 +1106,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1506,7 +1278,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1689,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/downloads/funcao-desloc-como-utilizar-no-excel.xlsx
+++ b/downloads/funcao-desloc-como-utilizar-no-excel.xlsx
@@ -732,247 +732,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63401</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Agrupar 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA7196A-DA46-44EE-9899-6B80FA3FBB6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6238875" y="438150"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Imagem 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F88874-AF93-4253-8B82-5136BA7A676E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Retângulo 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50962E37-6215-468D-8530-E1FE5FB0B15D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6251</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Agrupar 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9137FA-717C-4D58-AC2F-F0EC8443C60B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5562600" y="295275"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Imagem 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09AECBC-DF46-4B5C-99AE-B5365515D98E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Retângulo 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC54A21-D5B4-4642-B0E6-5C0B7AD77C4E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1922,6 +1681,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>